--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -387,20 +387,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
+      <sz val="15"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -442,18 +444,16 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -479,13 +479,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>51953</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1893314</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1610591</xdr:rowOff>
@@ -532,13 +532,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>51954</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1898775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1593274</xdr:rowOff>
@@ -585,13 +585,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1762125</xdr:rowOff>
@@ -640,13 +640,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1762125</xdr:rowOff>
@@ -695,13 +695,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1762125</xdr:rowOff>
@@ -750,13 +750,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1762125</xdr:rowOff>
@@ -805,13 +805,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1762125</xdr:rowOff>
@@ -860,13 +860,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1762125</xdr:rowOff>
@@ -915,13 +915,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1762125</xdr:rowOff>
@@ -970,13 +970,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1762125</xdr:rowOff>
@@ -1025,13 +1025,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1762125</xdr:rowOff>
@@ -1080,13 +1080,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1762125</xdr:rowOff>
@@ -1135,13 +1135,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1762125</xdr:rowOff>
@@ -1190,13 +1190,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1762125</xdr:rowOff>
@@ -1533,1038 +1533,1004 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="B1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="15" width="40.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="170.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="2:15" ht="170.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="54" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="2:15" ht="58.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="2:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="2:15" ht="39" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="2:15" ht="39" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="2:15" ht="39" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="54" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="2:15" ht="58.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="39" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="G16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="J17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="39" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="G20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="39" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="H21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="39" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="54" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="H22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="I22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="G23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="G25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>40</v>
@@ -2572,354 +2538,390 @@
       <c r="H26" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="I26" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="39" x14ac:dyDescent="0.3">
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="39" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="39" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="39" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="C32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="F32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="D34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="39" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="C36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="F36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="G36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="N36" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="O36" s="4" t="s">
         <v>29</v>
       </c>
     </row>
